--- a/artfynd/Johannesbomyran artfynd.xlsx
+++ b/artfynd/Johannesbomyran artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103159556</v>
+        <v>126909580</v>
       </c>
       <c r="B2" t="n">
         <v>98361</v>
@@ -710,30 +710,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Skog intill Johannesbomyran, Ång</t>
+          <t>Johannesbomyran, Johannesbomyran, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>690235</v>
+        <v>690493</v>
       </c>
       <c r="R2" t="n">
-        <v>7097032</v>
+        <v>7097055</v>
       </c>
       <c r="S2" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -757,12 +749,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -771,22 +773,567 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>126909288</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78739</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Nyfönnemyrtjärnen, Nyfönnemyrtjärnen, Ång</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>690438</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7097136</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>126909538</v>
+      </c>
+      <c r="B4" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Johannesbomyran, Johannesbomyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>690484</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7097073</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>126909413</v>
+      </c>
+      <c r="B5" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Johannesbomyran, Johannesbomyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>690516</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7097033</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>126909505</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80112</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Johannesbomyran, Johannesbomyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>690538</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7096999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Eleonor Johansson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>103159556</v>
+      </c>
+      <c r="B7" t="n">
+        <v>98361</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Skog intill Johannesbomyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>690235</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7097032</v>
+      </c>
+      <c r="S7" t="n">
+        <v>75</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2022-07-30</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2022-07-30</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
           <t>Malin König</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX7" t="inlineStr">
         <is>
           <t>Malin König</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
